--- a/biology/Zoologie/Aigle_de_Blyth/Aigle_de_Blyth.xlsx
+++ b/biology/Zoologie/Aigle_de_Blyth/Aigle_de_Blyth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nisaetus alboniger
 L'Aigle de Blyth (Nisaetus alboniger) est une espèce d'oiseaux appartenant à la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un rapace de taille moyenne d'environ 51 à 58 cm de longueur. Les adultes ont une large bande blanche sur le dessus et le dessous de la queue, une poitrine piquetée de noir au-dessus, rayée en dessous. Il a une crête comme les Bazas. Le juvénile est brun foncé dessus et a la tête et le ventre beige.
 </t>
@@ -543,7 +557,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il construit un nid de branches dans un arbre et la femelle y pond un seul œuf.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans la péninsule malaise, Singapour, Sumatra et Bornéo.
 </t>
@@ -605,7 +623,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau des forêts ouvertes même si les formes insulaires préfèrent une plus grande densité d'arbres.
 </t>
